--- a/Encode.xlsx
+++ b/Encode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -492,39 +492,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,7 +842,7 @@
   <dimension ref="A2:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -927,23 +927,23 @@
         <v>1</v>
       </c>
       <c r="Q3" s="6">
-        <v>0</v>
-      </c>
-      <c r="S3" s="39">
+        <v>1</v>
+      </c>
+      <c r="S3" s="33">
         <f>VLOOKUP(L8,B8:C23,2)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="40">
+      <c r="T3" s="34">
         <f>VLOOKUP(L9,B8:C23,2)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="40">
+      <c r="U3" s="34" t="str">
         <f>VLOOKUP(L10,B8:C23,2)</f>
-        <v>5</v>
-      </c>
-      <c r="V3" s="41">
+        <v>D</v>
+      </c>
+      <c r="V3" s="35">
         <f>VLOOKUP(L11,B8:C23,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -1024,19 +1024,19 @@
       </c>
       <c r="F6" s="8">
         <f>P_1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="9">
         <f>P_2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="9">
         <f>IN_1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="10">
         <f>P_4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
         <f>IN_2</f>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="M6" s="3">
         <f>P_8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4">
         <f>IN_5</f>
@@ -1068,23 +1068,23 @@
       </c>
       <c r="Q6" s="6">
         <f>IN_8</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="39">
+        <v>1</v>
+      </c>
+      <c r="S6" s="33">
         <f>VLOOKUP(P8,B8:C23,2)</f>
         <v>1</v>
       </c>
-      <c r="T6" s="40">
+      <c r="T6" s="34">
         <f>VLOOKUP(P9,B8:C23,2)</f>
-        <v>8</v>
-      </c>
-      <c r="U6" s="40" t="str">
+        <v>7</v>
+      </c>
+      <c r="U6" s="34" t="str">
         <f>VLOOKUP(P10,B8:C23,2)</f>
-        <v>B</v>
-      </c>
-      <c r="V6" s="41">
+        <v>A</v>
+      </c>
+      <c r="V6" s="35">
         <f>VLOOKUP(P11,B8:C23,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1095,33 +1095,33 @@
       <c r="C8" s="19">
         <v>0</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="27" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="24">
         <f>SUM(IN_1, IN_2, IN_3, IN_4, IN_5, IN_6, IN_7, IN_8)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8" s="24">
         <f>FLOOR(F8/2,1)*2</f>
-        <v>2</v>
-      </c>
-      <c r="H8" s="36">
+        <v>4</v>
+      </c>
+      <c r="H8" s="30">
         <f>IF(F8=G8,0,1)</f>
         <v>1</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="29"/>
+      <c r="K8" s="37"/>
       <c r="L8" s="19">
         <f>8*B3+4*C3+2*D3+E3</f>
         <v>0</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="29"/>
+      <c r="O8" s="37"/>
       <c r="P8" s="19">
         <f>8*B6+4*C6+2*D6+E6</f>
         <v>1</v>
@@ -1134,36 +1134,36 @@
       <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="28" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="25">
         <f>SUM(IN_1, IN_2, IN_4, IN_5, IN_7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="25">
         <f t="shared" ref="G9:G12" si="0">FLOOR(F9/2,1)*2</f>
-        <v>2</v>
-      </c>
-      <c r="H9" s="37">
+        <v>4</v>
+      </c>
+      <c r="H9" s="31">
         <f t="shared" ref="H9:H12" si="1">IF(F9=G9,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="39"/>
       <c r="L9" s="21">
         <f>8*F3+4*G3+2*H3+I3</f>
         <v>0</v>
       </c>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="27"/>
+      <c r="O9" s="39"/>
       <c r="P9" s="21">
         <f>8*F6+4*G6+2*H6+I6</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -1173,36 +1173,36 @@
       <c r="C10" s="21">
         <v>2</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="25">
         <f>SUM(IN_1, IN_3, IN_4, IN_6, IN_7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="27"/>
+      <c r="K10" s="39"/>
       <c r="L10" s="21">
         <f>8*IN_1+4*IN_2+2*IN_3+IN_4</f>
-        <v>5</v>
-      </c>
-      <c r="N10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="27"/>
+      <c r="O10" s="39"/>
       <c r="P10" s="21">
         <f>8*J6+4*K6+2*L6+M6</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1212,36 +1212,36 @@
       <c r="C11" s="21">
         <v>3</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="25">
         <f>SUM(IN_2, IN_3, IN_4, IN_8)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="32"/>
+      <c r="K11" s="41"/>
       <c r="L11" s="23">
         <f>8*IN_5+4*IN_6+2*IN_7+IN_8</f>
-        <v>2</v>
-      </c>
-      <c r="N11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="32"/>
+      <c r="O11" s="41"/>
       <c r="P11" s="23">
         <f>8*N6+4*O6+2*P6+Q6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1251,20 +1251,20 @@
       <c r="C12" s="21">
         <v>4</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="29" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="26">
         <f>SUM(IN_5, IN_6, IN_7, IN_8)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="38">
+        <v>2</v>
+      </c>
+      <c r="H12" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">

--- a/Encode.xlsx
+++ b/Encode.xlsx
@@ -9,25 +9,145 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25215" windowHeight="10530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13905" windowHeight="6075" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Encode" sheetId="1" r:id="rId1"/>
+    <sheet name="Decode" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="IN_1">Sheet1!$J$3</definedName>
-    <definedName name="IN_2">Sheet1!$K$3</definedName>
-    <definedName name="IN_3">Sheet1!$L$3</definedName>
-    <definedName name="IN_4">Sheet1!$M$3</definedName>
-    <definedName name="IN_5">Sheet1!$N$3</definedName>
-    <definedName name="IN_6">Sheet1!$O$3</definedName>
-    <definedName name="IN_7">Sheet1!$P$3</definedName>
-    <definedName name="IN_8">Sheet1!$Q$3</definedName>
-    <definedName name="P_0">Sheet1!$H$8</definedName>
-    <definedName name="P_1">Sheet1!$H$9</definedName>
-    <definedName name="P_2">Sheet1!$H$10</definedName>
-    <definedName name="P_4">Sheet1!$H$11</definedName>
-    <definedName name="P_8">Sheet1!$H$12</definedName>
+    <definedName name="BadBit" localSheetId="1">Decode!$D$18</definedName>
+    <definedName name="C_B1_1" localSheetId="1">Decode!$E$9</definedName>
+    <definedName name="C_B1_2" localSheetId="1">Decode!$D$9</definedName>
+    <definedName name="C_B1_4" localSheetId="1">Decode!$C$9</definedName>
+    <definedName name="C_B1_8" localSheetId="1">Decode!$B$9</definedName>
+    <definedName name="C_B2_1" localSheetId="1">Decode!$I$9</definedName>
+    <definedName name="C_B2_2" localSheetId="1">Decode!$H$9</definedName>
+    <definedName name="C_B2_4" localSheetId="1">Decode!$G$9</definedName>
+    <definedName name="C_B2_8" localSheetId="1">Decode!$F$9</definedName>
+    <definedName name="C_B3_1" localSheetId="1">Decode!$M$9</definedName>
+    <definedName name="C_B3_2" localSheetId="1">Decode!$L$9</definedName>
+    <definedName name="C_B3_4" localSheetId="1">Decode!$K$9</definedName>
+    <definedName name="C_B3_8" localSheetId="1">Decode!$J$9</definedName>
+    <definedName name="C_B4_1" localSheetId="1">Decode!$Q$9</definedName>
+    <definedName name="C_B4_2" localSheetId="1">Decode!$P$9</definedName>
+    <definedName name="C_B4_4" localSheetId="1">Decode!$O$9</definedName>
+    <definedName name="C_B4_8" localSheetId="1">Decode!$N$9</definedName>
+    <definedName name="CB_1" localSheetId="1">Decode!$P$12</definedName>
+    <definedName name="CB_2" localSheetId="1">Decode!$P$13</definedName>
+    <definedName name="CB_3" localSheetId="1">Decode!$P$14</definedName>
+    <definedName name="CB_4" localSheetId="1">Decode!$P$15</definedName>
+    <definedName name="HexTable">Encode!$B$9:$C$24</definedName>
+    <definedName name="I_b1" localSheetId="1">Decode!$H$3</definedName>
+    <definedName name="I_b1" localSheetId="0">Encode!$J$3</definedName>
+    <definedName name="I_B1_1" localSheetId="1">Decode!$E$3</definedName>
+    <definedName name="I_B1_1" localSheetId="0">Encode!$E$3</definedName>
+    <definedName name="I_B1_2" localSheetId="1">Decode!$D$3</definedName>
+    <definedName name="I_B1_2" localSheetId="0">Encode!$D$3</definedName>
+    <definedName name="I_B1_4" localSheetId="1">Decode!$C$3</definedName>
+    <definedName name="I_B1_4" localSheetId="0">Encode!$C$3</definedName>
+    <definedName name="I_B1_8" localSheetId="1">Decode!$B$3</definedName>
+    <definedName name="I_B1_8" localSheetId="0">Encode!$B$3</definedName>
+    <definedName name="I_b2" localSheetId="1">Decode!$J$3</definedName>
+    <definedName name="I_b2" localSheetId="0">Encode!$K$3</definedName>
+    <definedName name="I_B2_1" localSheetId="1">Decode!$I$3</definedName>
+    <definedName name="I_B2_1" localSheetId="0">Encode!$I$3</definedName>
+    <definedName name="I_B2_2" localSheetId="1">Decode!$H$3</definedName>
+    <definedName name="I_B2_2" localSheetId="0">Encode!$H$3</definedName>
+    <definedName name="I_B2_4" localSheetId="1">Decode!$G$3</definedName>
+    <definedName name="I_B2_4" localSheetId="0">Encode!$G$3</definedName>
+    <definedName name="I_B2_8" localSheetId="1">Decode!$F$3</definedName>
+    <definedName name="I_B2_8" localSheetId="0">Encode!$F$3</definedName>
+    <definedName name="I_b3" localSheetId="1">Decode!$K$3</definedName>
+    <definedName name="I_b3" localSheetId="0">Encode!$L$3</definedName>
+    <definedName name="I_B3_1" localSheetId="1">Decode!$M$3</definedName>
+    <definedName name="I_B3_1" localSheetId="0">Encode!$M$3</definedName>
+    <definedName name="I_B3_2" localSheetId="1">Decode!$L$3</definedName>
+    <definedName name="I_B3_2" localSheetId="0">Encode!$L$3</definedName>
+    <definedName name="I_B3_4" localSheetId="1">Decode!$K$3</definedName>
+    <definedName name="I_B3_4" localSheetId="0">Encode!$K$3</definedName>
+    <definedName name="I_B3_8" localSheetId="1">Decode!$J$3</definedName>
+    <definedName name="I_B3_8" localSheetId="0">Encode!$J$3</definedName>
+    <definedName name="I_b4" localSheetId="1">Decode!$L$3</definedName>
+    <definedName name="I_b4" localSheetId="0">Encode!$M$3</definedName>
+    <definedName name="I_B4_1" localSheetId="1">Decode!$Q$3</definedName>
+    <definedName name="I_B4_1" localSheetId="0">Encode!$Q$3</definedName>
+    <definedName name="I_B4_2" localSheetId="1">Decode!$P$3</definedName>
+    <definedName name="I_B4_2" localSheetId="0">Encode!$P$3</definedName>
+    <definedName name="I_B4_4" localSheetId="1">Decode!$O$3</definedName>
+    <definedName name="I_B4_4" localSheetId="0">Encode!$O$3</definedName>
+    <definedName name="I_B4_8" localSheetId="1">Decode!$N$3</definedName>
+    <definedName name="I_B4_8" localSheetId="0">Encode!$N$3</definedName>
+    <definedName name="I_b5" localSheetId="1">Decode!$N$3</definedName>
+    <definedName name="I_b5" localSheetId="0">Encode!$N$3</definedName>
+    <definedName name="I_b6" localSheetId="1">Decode!$O$3</definedName>
+    <definedName name="I_b6" localSheetId="0">Encode!$O$3</definedName>
+    <definedName name="I_b7" localSheetId="1">Decode!$P$3</definedName>
+    <definedName name="I_b7" localSheetId="0">Encode!$P$3</definedName>
+    <definedName name="I_b8" localSheetId="1">Decode!$Q$3</definedName>
+    <definedName name="I_b8" localSheetId="0">Encode!$Q$3</definedName>
+    <definedName name="IB_1" localSheetId="1">Decode!$H$12</definedName>
+    <definedName name="IB_1" localSheetId="0">Encode!$L$9</definedName>
+    <definedName name="IB_2" localSheetId="1">Decode!$H$13</definedName>
+    <definedName name="IB_2" localSheetId="0">Encode!$L$10</definedName>
+    <definedName name="IB_3" localSheetId="1">Decode!$H$14</definedName>
+    <definedName name="IB_3" localSheetId="0">Encode!$L$11</definedName>
+    <definedName name="IB_4" localSheetId="1">Decode!$H$15</definedName>
+    <definedName name="IB_4" localSheetId="0">Encode!$L$12</definedName>
+    <definedName name="InByte1" localSheetId="0">Encode!$L$9</definedName>
+    <definedName name="O_B1_1" localSheetId="1">Decode!$E$6</definedName>
+    <definedName name="O_B1_1" localSheetId="0">Encode!$E$6</definedName>
+    <definedName name="O_B1_2" localSheetId="1">Decode!$D$6</definedName>
+    <definedName name="O_B1_2" localSheetId="0">Encode!$D$6</definedName>
+    <definedName name="O_B1_4" localSheetId="1">Decode!$C$6</definedName>
+    <definedName name="O_B1_4" localSheetId="0">Encode!$C$6</definedName>
+    <definedName name="O_B1_8" localSheetId="1">Decode!$B$6</definedName>
+    <definedName name="O_B1_8" localSheetId="0">Encode!$B$6</definedName>
+    <definedName name="O_B2_1" localSheetId="1">Decode!$I$6</definedName>
+    <definedName name="O_B2_1" localSheetId="0">Encode!$I$6</definedName>
+    <definedName name="O_B2_2" localSheetId="1">Decode!$H$6</definedName>
+    <definedName name="O_B2_2" localSheetId="0">Encode!$H$6</definedName>
+    <definedName name="O_B2_4" localSheetId="1">Decode!$G$6</definedName>
+    <definedName name="O_B2_4" localSheetId="0">Encode!$G$6</definedName>
+    <definedName name="O_B2_8" localSheetId="1">Decode!$F$6</definedName>
+    <definedName name="O_B2_8" localSheetId="0">Encode!$F$6</definedName>
+    <definedName name="O_B3_1" localSheetId="1">Decode!$M$6</definedName>
+    <definedName name="O_B3_1" localSheetId="0">Encode!$M$6</definedName>
+    <definedName name="O_B3_2" localSheetId="1">Decode!$L$6</definedName>
+    <definedName name="O_B3_2" localSheetId="0">Encode!$L$6</definedName>
+    <definedName name="O_B3_4" localSheetId="1">Decode!$K$6</definedName>
+    <definedName name="O_B3_4" localSheetId="0">Encode!$K$6</definedName>
+    <definedName name="O_B3_8" localSheetId="1">Decode!$J$6</definedName>
+    <definedName name="O_B3_8" localSheetId="0">Encode!$J$6</definedName>
+    <definedName name="O_B4_1" localSheetId="1">Decode!$Q$6</definedName>
+    <definedName name="O_B4_1" localSheetId="0">Encode!$Q$6</definedName>
+    <definedName name="O_B4_2" localSheetId="1">Decode!$P$6</definedName>
+    <definedName name="O_B4_2" localSheetId="0">Encode!$P$6</definedName>
+    <definedName name="O_B4_4" localSheetId="1">Decode!$O$6</definedName>
+    <definedName name="O_B4_4" localSheetId="0">Encode!$O$6</definedName>
+    <definedName name="O_B4_8" localSheetId="1">Decode!$N$6</definedName>
+    <definedName name="O_B4_8" localSheetId="0">Encode!$N$6</definedName>
+    <definedName name="OB_1" localSheetId="1">Decode!$L$12</definedName>
+    <definedName name="OB_1" localSheetId="0">Encode!$P$9</definedName>
+    <definedName name="OB_2" localSheetId="1">Decode!$L$13</definedName>
+    <definedName name="OB_2" localSheetId="0">Encode!$P$10</definedName>
+    <definedName name="OB_3" localSheetId="1">Decode!$L$14</definedName>
+    <definedName name="OB_3" localSheetId="0">Encode!$P$11</definedName>
+    <definedName name="OB_4" localSheetId="1">Decode!$L$15</definedName>
+    <definedName name="OB_4" localSheetId="0">Encode!$P$12</definedName>
+    <definedName name="OnlyOneBit" localSheetId="1">Decode!$D$20</definedName>
+    <definedName name="P_0" localSheetId="1">Decode!$D$12</definedName>
+    <definedName name="ParityBitOnly" localSheetId="1">Decode!$D$19</definedName>
+    <definedName name="PB_0" localSheetId="1">Decode!$E$3</definedName>
+    <definedName name="PB_0" localSheetId="0">Encode!$H$9</definedName>
+    <definedName name="PB_1" localSheetId="1">Decode!$F$3</definedName>
+    <definedName name="PB_1" localSheetId="0">Encode!$H$10</definedName>
+    <definedName name="PB_2" localSheetId="1">Decode!$G$3</definedName>
+    <definedName name="PB_2" localSheetId="0">Encode!$H$11</definedName>
+    <definedName name="PB_4" localSheetId="1">Decode!$I$3</definedName>
+    <definedName name="PB_4" localSheetId="0">Encode!$H$12</definedName>
+    <definedName name="PB_8" localSheetId="1">Decode!$M$3</definedName>
+    <definedName name="PB_8" localSheetId="0">Encode!$H$13</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
   <si>
     <t>Input</t>
   </si>
@@ -62,30 +182,6 @@
     <t>P8</t>
   </si>
   <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>x4</t>
-  </si>
-  <si>
-    <t>x5</t>
-  </si>
-  <si>
-    <t>x6</t>
-  </si>
-  <si>
-    <t>x7</t>
-  </si>
-  <si>
-    <t>x8</t>
-  </si>
-  <si>
     <t>Input Byte 1</t>
   </si>
   <si>
@@ -126,13 +222,70 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Encode</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>b7</t>
+  </si>
+  <si>
+    <t>b8</t>
+  </si>
+  <si>
+    <t>Decode</t>
+  </si>
+  <si>
+    <t>Corrected</t>
+  </si>
+  <si>
+    <t>Corrected Byte 1</t>
+  </si>
+  <si>
+    <t>Corrected Byte 2</t>
+  </si>
+  <si>
+    <t>Corrected Byte 3</t>
+  </si>
+  <si>
+    <t>Corrected Byte 4</t>
+  </si>
+  <si>
+    <t>Bad Bit</t>
+  </si>
+  <si>
+    <t>Only One Bit Flipped?</t>
+  </si>
+  <si>
+    <t>More Than One Bit Flipped?</t>
+  </si>
+  <si>
+    <t>Parity Bit Only?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +293,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,42 +326,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -410,12 +616,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,18 +769,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,91 +799,224 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -839,533 +1325,1375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V23"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.42578125" customWidth="1"/>
     <col min="19" max="22" width="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="14" t="s">
+    <row r="1" spans="1:23" s="21" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0</v>
+      </c>
+      <c r="D3" s="33">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0</v>
+      </c>
+      <c r="G3" s="33">
+        <v>0</v>
+      </c>
+      <c r="H3" s="33">
+        <v>0</v>
+      </c>
+      <c r="I3" s="34">
+        <v>0</v>
+      </c>
+      <c r="J3" s="38">
+        <v>1</v>
+      </c>
+      <c r="K3" s="39">
+        <v>1</v>
+      </c>
+      <c r="L3" s="39">
+        <v>1</v>
+      </c>
+      <c r="M3" s="40">
+        <v>1</v>
+      </c>
+      <c r="N3" s="16">
+        <v>1</v>
+      </c>
+      <c r="O3" s="17">
+        <v>0</v>
+      </c>
+      <c r="P3" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>0</v>
+      </c>
+      <c r="R3" s="19"/>
+      <c r="S3" s="125">
+        <f>VLOOKUP(IB_1,HexTable,2)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="126">
+        <f>VLOOKUP(IB_2,HexTable,2)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="126" t="str">
+        <f>VLOOKUP(IB_3,HexTable,2)</f>
+        <v>F</v>
+      </c>
+      <c r="V3" s="127">
+        <f>VLOOKUP(IB_4,HexTable,2)</f>
+        <v>8</v>
+      </c>
+      <c r="W3" s="19"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0</v>
+      </c>
+      <c r="E6" s="47">
+        <f>PB_0</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="44">
+        <f>PB_1</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="45">
+        <f>PB_2</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="45">
+        <f>I_b1</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="46">
+        <f>PB_4</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="41">
+        <f>I_b2</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="42">
+        <f>I_b3</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="42">
+        <f>I_b4</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="43">
+        <f>PB_8</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="35">
+        <f>I_b5</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="36">
+        <f>I_b6</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="36">
+        <f>I_b7</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="37">
+        <f>I_b8</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="20"/>
+      <c r="S6" s="125">
+        <f>VLOOKUP(OB_1,HexTable,2)</f>
+        <v>1</v>
+      </c>
+      <c r="T6" s="126">
+        <f>VLOOKUP(OB_2,HexTable,2)</f>
         <v>7</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="U6" s="126" t="str">
+        <f>VLOOKUP(OB_3,HexTable,2)</f>
+        <v>F</v>
+      </c>
+      <c r="V6" s="127">
+        <f>VLOOKUP(OB_4,HexTable,2)</f>
         <v>8</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="14" t="s">
+      <c r="W6" s="20"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="114">
+        <f>SUM(I_b1, I_b2, I_b3, I_b4, I_b5, I_b6, I_b7, I_b8)</f>
+        <v>5</v>
+      </c>
+      <c r="G9" s="114">
+        <f>FLOOR(F9/2,1)*2</f>
+        <v>4</v>
+      </c>
+      <c r="H9" s="10">
+        <f>IF(F9=G9,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="91"/>
+      <c r="L9" s="96">
+        <f>8*I_B1_8+4*I_B1_4+2*I_B1_2+I_B1_1</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O9" s="100"/>
+      <c r="P9" s="105">
+        <f>8*O_B1_8+4*O_B1_4+2*O_B1_2+O_B1_1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="115">
+        <f>SUM(I_b1, I_b2, I_b4, I_b5, I_b7)</f>
+        <v>4</v>
+      </c>
+      <c r="G10" s="115">
+        <f t="shared" ref="G10:G13" si="0">FLOOR(F10/2,1)*2</f>
+        <v>4</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" ref="H10:H13" si="1">IF(F10=G10,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="93"/>
+      <c r="L10" s="97">
+        <f>8*I_B2_8+4*I_B2_4+2*I_B2_2+I_B2_1</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="15">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
-        <v>0</v>
-      </c>
-      <c r="I3" s="17">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>1</v>
-      </c>
-      <c r="S3" s="33">
-        <f>VLOOKUP(L8,B8:C23,2)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="34">
-        <f>VLOOKUP(L9,B8:C23,2)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="34" t="str">
-        <f>VLOOKUP(L10,B8:C23,2)</f>
-        <v>D</v>
-      </c>
-      <c r="V3" s="35">
-        <f>VLOOKUP(L11,B8:C23,2)</f>
+      <c r="O10" s="102"/>
+      <c r="P10" s="106">
+        <f>8*O_B2_8+4*O_B2_4+2*O_B2_2+O_B2_1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="115">
+        <f>SUM(I_b1, I_b3, I_b4, I_b6, I_b7)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <f>P_0</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <f>P_1</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <f>P_2</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="9">
-        <f>IN_1</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="10">
-        <f>P_4</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <f>IN_2</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <f>IN_3</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <f>IN_4</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
-        <f>P_8</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <f>IN_5</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <f>IN_6</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <f>IN_7</f>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="6">
-        <f>IN_8</f>
-        <v>1</v>
-      </c>
-      <c r="S6" s="33">
-        <f>VLOOKUP(P8,B8:C23,2)</f>
-        <v>1</v>
-      </c>
-      <c r="T6" s="34">
-        <f>VLOOKUP(P9,B8:C23,2)</f>
-        <v>7</v>
-      </c>
-      <c r="U6" s="34" t="str">
-        <f>VLOOKUP(P10,B8:C23,2)</f>
-        <v>A</v>
-      </c>
-      <c r="V6" s="35">
-        <f>VLOOKUP(P11,B8:C23,2)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
-        <v>0</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="24">
-        <f>SUM(IN_1, IN_2, IN_3, IN_4, IN_5, IN_6, IN_7, IN_8)</f>
-        <v>5</v>
-      </c>
-      <c r="G8" s="24">
-        <f>FLOOR(F8/2,1)*2</f>
-        <v>4</v>
-      </c>
-      <c r="H8" s="30">
-        <f>IF(F8=G8,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="19">
-        <f>8*B3+4*C3+2*D3+E3</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="19">
-        <f>8*B6+4*C6+2*D6+E6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
-        <v>1</v>
-      </c>
-      <c r="C9" s="21">
-        <v>1</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="25">
-        <f>SUM(IN_1, IN_2, IN_4, IN_5, IN_7)</f>
-        <v>4</v>
-      </c>
-      <c r="G9" s="25">
-        <f t="shared" ref="G9:G12" si="0">FLOOR(F9/2,1)*2</f>
-        <v>4</v>
-      </c>
-      <c r="H9" s="31">
-        <f t="shared" ref="H9:H12" si="1">IF(F9=G9,0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="21">
-        <f>8*F3+4*G3+2*H3+I3</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="21">
-        <f>8*F6+4*G6+2*H6+I6</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
-        <v>2</v>
-      </c>
-      <c r="C10" s="21">
-        <v>2</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="25">
-        <f>SUM(IN_1, IN_3, IN_4, IN_6, IN_7)</f>
-        <v>3</v>
-      </c>
-      <c r="G10" s="25">
+      <c r="G11" s="115">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H11" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J10" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="21">
-        <f>8*IN_1+4*IN_2+2*IN_3+IN_4</f>
+      <c r="J11" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="93"/>
+      <c r="L11" s="97">
+        <f>8*I_B3_8+4*I_B3_4+2*I_B3_2+I_B3_1</f>
+        <v>15</v>
+      </c>
+      <c r="N11" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="21">
-        <f>8*J6+4*K6+2*L6+M6</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20">
+      <c r="O11" s="102"/>
+      <c r="P11" s="106">
+        <f>8*O_B3_8+4*O_B3_4+2*O_B3_2+O_B3_1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C12" s="4">
         <v>3</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="25">
-        <f>SUM(IN_2, IN_3, IN_4, IN_8)</f>
+      <c r="F12" s="115">
+        <f>SUM(I_b2, I_b3, I_b4, I_b8)</f>
         <v>3</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G12" s="115">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H12" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J12" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="95"/>
+      <c r="L12" s="98">
+        <f>8*I_B4_8+4*I_B4_4+2*I_B4_2+I_B4_1</f>
+        <v>8</v>
+      </c>
+      <c r="N12" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="104"/>
+      <c r="P12" s="107">
+        <f>8*O_B4_8+4*O_B4_4+2*O_B4_2+O_B4_1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="116">
+        <f>SUM(I_b5, I_b6, I_b7, I_b8)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="23">
-        <f>8*IN_5+4*IN_6+2*IN_7+IN_8</f>
-        <v>3</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="41"/>
-      <c r="P11" s="23">
-        <f>8*N6+4*O6+2*P6+Q6</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20">
-        <v>4</v>
-      </c>
-      <c r="C12" s="21">
-        <v>4</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="26">
-        <f>SUM(IN_5, IN_6, IN_7, IN_8)</f>
-        <v>2</v>
-      </c>
-      <c r="G12" s="26">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H12" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="20">
-        <v>5</v>
-      </c>
-      <c r="C13" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="20">
-        <v>6</v>
-      </c>
-      <c r="C14" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="20">
-        <v>7</v>
-      </c>
-      <c r="C15" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="20">
-        <v>8</v>
-      </c>
-      <c r="C16" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="20">
-        <v>9</v>
-      </c>
-      <c r="C17" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="20">
-        <v>10</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="20">
-        <v>11</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="20">
-        <v>12</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="20">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
         <v>13</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="20">
+      <c r="C22" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
         <v>14</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="22">
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
         <v>15</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>28</v>
+      <c r="C24" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="8">
-    <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J3:Q3">
+      <formula1>"0, 1"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="22" width="2" customWidth="1"/>
+    <col min="23" max="23" width="4.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0</v>
+      </c>
+      <c r="D3" s="33">
+        <v>0</v>
+      </c>
+      <c r="E3" s="57">
+        <v>1</v>
+      </c>
+      <c r="F3" s="58">
+        <v>0</v>
+      </c>
+      <c r="G3" s="59">
+        <v>1</v>
+      </c>
+      <c r="H3" s="59">
+        <v>1</v>
+      </c>
+      <c r="I3" s="60">
+        <v>1</v>
+      </c>
+      <c r="J3" s="38">
+        <v>1</v>
+      </c>
+      <c r="K3" s="39">
+        <v>1</v>
+      </c>
+      <c r="L3" s="39">
+        <v>1</v>
+      </c>
+      <c r="M3" s="40">
+        <v>1</v>
+      </c>
+      <c r="N3" s="16">
+        <v>1</v>
+      </c>
+      <c r="O3" s="17">
+        <v>0</v>
+      </c>
+      <c r="P3" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>0</v>
+      </c>
+      <c r="R3" s="19"/>
+      <c r="S3" s="125">
+        <f>VLOOKUP(IB_1,HexTable,2)</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="126">
+        <f>VLOOKUP(IB_2,HexTable,2)</f>
+        <v>7</v>
+      </c>
+      <c r="U3" s="126" t="str">
+        <f>VLOOKUP(IB_3,HexTable,2)</f>
+        <v>F</v>
+      </c>
+      <c r="V3" s="127">
+        <f>VLOOKUP(IB_4,HexTable,2)</f>
+        <v>8</v>
+      </c>
+      <c r="W3" s="19"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="48">
+        <v>0</v>
+      </c>
+      <c r="C6" s="49">
+        <v>0</v>
+      </c>
+      <c r="D6" s="49">
+        <v>0</v>
+      </c>
+      <c r="E6" s="50">
+        <v>0</v>
+      </c>
+      <c r="F6" s="48">
+        <v>0</v>
+      </c>
+      <c r="G6" s="49">
+        <v>0</v>
+      </c>
+      <c r="H6" s="49">
+        <v>0</v>
+      </c>
+      <c r="I6" s="50">
+        <v>0</v>
+      </c>
+      <c r="J6" s="51">
+        <f>I_b1</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="52">
+        <f>I_b2</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="52">
+        <f>I_b3</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="53">
+        <f>I_b4</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="54">
+        <f>I_b5</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="55">
+        <f>I_b6</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="55">
+        <f>I_b7</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="56">
+        <f>I_b8</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="20"/>
+      <c r="S6" s="125">
+        <f>VLOOKUP(OB_1,HexTable,2)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="126">
+        <f>VLOOKUP(OB_2,HexTable,2)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="126" t="str">
+        <f>VLOOKUP(OB_3,HexTable,2)</f>
+        <v>F</v>
+      </c>
+      <c r="V6" s="127">
+        <f>VLOOKUP(OB_4,HexTable,2)</f>
+        <v>8</v>
+      </c>
+      <c r="W6" s="20"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="48">
+        <v>0</v>
+      </c>
+      <c r="C9" s="49">
+        <v>0</v>
+      </c>
+      <c r="D9" s="49">
+        <v>0</v>
+      </c>
+      <c r="E9" s="50">
+        <v>0</v>
+      </c>
+      <c r="F9" s="48">
+        <v>0</v>
+      </c>
+      <c r="G9" s="49">
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <v>0</v>
+      </c>
+      <c r="I9" s="50">
+        <v>0</v>
+      </c>
+      <c r="J9" s="51">
+        <f>IF(BadBit=3,IF(I_b1=0,1,0),I_b1)</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="52">
+        <f>IF(BadBit=5,IF(I_b2=0,1,0),I_b2)</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="52">
+        <f>IF(BadBit=6,IF(I_b3=0,1,0),I_b3)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="53">
+        <f>IF(BadBit=7,IF(I_b4=0,1,0),I_b4)</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="54">
+        <f>IF(BadBit=9,IF(I_b5=0,1,0),I_b5)</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="55">
+        <f>IF(BadBit=10,IF(I_b6=0,1,0),I_b6)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="55">
+        <f>IF(BadBit=11,IF(I_b7=0,1,0),I_b7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="56">
+        <f>IF(BadBit=12,IF(I_b8=0,1,0),I_b8)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="78"/>
+      <c r="S9" s="13">
+        <f>VLOOKUP(CB_1,HexTable,2)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <f>VLOOKUP(CB_2,HexTable,2)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="14" t="str">
+        <f>VLOOKUP(CB_3,HexTable,2)</f>
+        <v>F</v>
+      </c>
+      <c r="V9" s="15">
+        <f>VLOOKUP(CB_4,HexTable,2)</f>
+        <v>8</v>
+      </c>
+      <c r="W9" s="78"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="78"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="114">
+        <f>SUM(I_b1, I_b2, I_b3, I_b4, I_b5, I_b6, I_b7, I_b8,PB_0)</f>
+        <v>6</v>
+      </c>
+      <c r="C12" s="114">
+        <f>FLOOR(B12/2,1)*2</f>
+        <v>6</v>
+      </c>
+      <c r="D12" s="10">
+        <f>IF(B12=C12,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="91"/>
+      <c r="H12" s="96">
+        <f>8*I_B1_8+4*I_B1_4+2*I_B1_2+I_B1_1</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="100"/>
+      <c r="L12" s="105">
+        <f>8*O_B1_8+4*O_B1_4+2*O_B1_2+O_B1_1</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="109"/>
+      <c r="P12" s="10">
+        <f>8*C_B1_8+4*C_B1_4+2*C_B1_2+C_B1_1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="115">
+        <f>SUM(I_b1, I_b2, I_b4, I_b5, I_b7,PB_1)</f>
+        <v>4</v>
+      </c>
+      <c r="C13" s="115">
+        <f t="shared" ref="C13:C16" si="0">FLOOR(B13/2,1)*2</f>
+        <v>4</v>
+      </c>
+      <c r="D13" s="11">
+        <f>IF(B13=C13,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="93"/>
+      <c r="H13" s="97">
+        <f>8*I_B2_8+4*I_B2_4+2*I_B2_2+I_B2_1</f>
+        <v>7</v>
+      </c>
+      <c r="J13" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="102"/>
+      <c r="L13" s="106">
+        <f>8*O_B2_8+4*O_B2_4+2*O_B2_2+O_B2_1</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="111"/>
+      <c r="P13" s="11">
+        <f>8*C_B2_8+4*C_B2_4+2*C_B2_2+C_B2_1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="115">
+        <f>SUM(I_b1, I_b3, I_b4, I_b6, I_b7,PB_2)</f>
+        <v>4</v>
+      </c>
+      <c r="C14" s="115">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D14" s="11">
+        <f>IF(B14=C14,0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="93"/>
+      <c r="H14" s="97">
+        <f>8*I_B3_8+4*I_B3_4+2*I_B3_2+I_B3_1</f>
+        <v>15</v>
+      </c>
+      <c r="J14" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="102"/>
+      <c r="L14" s="106">
+        <f>8*O_B3_8+4*O_B3_4+2*O_B3_2+O_B3_1</f>
+        <v>15</v>
+      </c>
+      <c r="N14" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="111"/>
+      <c r="P14" s="11">
+        <f>8*C_B3_8+4*C_B3_4+2*C_B3_2+C_B3_1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="115">
+        <f>SUM(I_b2, I_b3, I_b4, I_b8,PB_4)</f>
+        <v>4</v>
+      </c>
+      <c r="C15" s="115">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D15" s="11">
+        <f>IF(B15=C15,0,4)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="95"/>
+      <c r="H15" s="98">
+        <f>8*I_B4_8+4*I_B4_4+2*I_B4_2+I_B4_1</f>
+        <v>8</v>
+      </c>
+      <c r="J15" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="104"/>
+      <c r="L15" s="107">
+        <f>8*O_B4_8+4*O_B4_4+2*O_B4_2+O_B4_1</f>
+        <v>8</v>
+      </c>
+      <c r="N15" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="113"/>
+      <c r="P15" s="12">
+        <f>8*C_B4_8+4*C_B4_4+2*C_B4_2+C_B4_1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="116">
+        <f>SUM(I_b5, I_b6, I_b7, I_b8,PB_8)</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="116">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="12">
+        <f>IF(B16=C16,0,8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="10">
+        <f>SUM(D13:D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="121" t="str">
+        <f>IF(OR(BadBit=1,BadBit=2,BadBit=4,BadBit=8),IF(OnlyOneBit="Yes","Yes","No"),"No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="121" t="str">
+        <f>IF(BadBit=0,IF(P_0=0,"No","Yes"),IF(P_0=1,"Yes","No"))</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="122" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124" t="str">
+        <f>IF(AND(BadBit&gt;0,OnlyOneBit="No"),"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="16">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="S9:V9">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$D$21="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>SUM($D$12:$D$16)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:Q3">
+      <formula1>"0, 1"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>